--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama2-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama2-Itga7.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.471482</v>
+        <v>1.890575333333333</v>
       </c>
       <c r="H2">
-        <v>4.414446</v>
+        <v>5.671726</v>
       </c>
       <c r="I2">
-        <v>0.004946458467382327</v>
+        <v>0.006346320422088561</v>
       </c>
       <c r="J2">
-        <v>0.004946458467382326</v>
+        <v>0.00634632042208856</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.464265666666667</v>
+        <v>2.750415333333333</v>
       </c>
       <c r="N2">
-        <v>4.392797</v>
+        <v>8.251245999999998</v>
       </c>
       <c r="O2">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="P2">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="Q2">
-        <v>2.154640571718</v>
+        <v>5.199867385621777</v>
       </c>
       <c r="R2">
-        <v>19.391765145462</v>
+        <v>46.79880647059598</v>
       </c>
       <c r="S2">
-        <v>0.0001296206951844943</v>
+        <v>0.0003053496738282425</v>
       </c>
       <c r="T2">
-        <v>0.0001296206951844942</v>
+        <v>0.0003053496738282425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.471482</v>
+        <v>1.890575333333333</v>
       </c>
       <c r="H3">
-        <v>4.414446</v>
+        <v>5.671726</v>
       </c>
       <c r="I3">
-        <v>0.004946458467382327</v>
+        <v>0.006346320422088561</v>
       </c>
       <c r="J3">
-        <v>0.004946458467382326</v>
+        <v>0.00634632042208856</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.427118</v>
       </c>
       <c r="O3">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="P3">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="Q3">
-        <v>1.190486816292</v>
+        <v>1.529549807296444</v>
       </c>
       <c r="R3">
-        <v>10.714381346628</v>
+        <v>13.765948265668</v>
       </c>
       <c r="S3">
-        <v>7.161831572339887E-05</v>
+        <v>8.981912424410281E-05</v>
       </c>
       <c r="T3">
-        <v>7.161831572339885E-05</v>
+        <v>8.981912424410281E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.471482</v>
+        <v>1.890575333333333</v>
       </c>
       <c r="H4">
-        <v>4.414446</v>
+        <v>5.671726</v>
       </c>
       <c r="I4">
-        <v>0.004946458467382327</v>
+        <v>0.006346320422088561</v>
       </c>
       <c r="J4">
-        <v>0.004946458467382326</v>
+        <v>0.00634632042208856</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>160.813717</v>
       </c>
       <c r="O4">
-        <v>0.9593165469325392</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="P4">
-        <v>0.9593165469325391</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="Q4">
-        <v>78.87816330619799</v>
+        <v>101.3434822072824</v>
       </c>
       <c r="R4">
-        <v>709.903469755782</v>
+        <v>912.091339865542</v>
       </c>
       <c r="S4">
-        <v>0.004745219456474434</v>
+        <v>0.005951151624016215</v>
       </c>
       <c r="T4">
-        <v>0.004745219456474433</v>
+        <v>0.005951151624016215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>794.313995</v>
       </c>
       <c r="I5">
-        <v>0.8900417371348598</v>
+        <v>0.8887896079640043</v>
       </c>
       <c r="J5">
-        <v>0.8900417371348596</v>
+        <v>0.8887896079640044</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.464265666666667</v>
+        <v>2.750415333333333</v>
       </c>
       <c r="N5">
-        <v>4.392797</v>
+        <v>8.251245999999998</v>
       </c>
       <c r="O5">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="P5">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="Q5">
-        <v>387.6955704771128</v>
+        <v>728.2311304430854</v>
       </c>
       <c r="R5">
-        <v>3489.260134294015</v>
+        <v>6554.080173987769</v>
       </c>
       <c r="S5">
-        <v>0.02332331899102921</v>
+        <v>0.04276361715824393</v>
       </c>
       <c r="T5">
-        <v>0.0233233189910292</v>
+        <v>0.04276361715824394</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>794.313995</v>
       </c>
       <c r="I6">
-        <v>0.8900417371348598</v>
+        <v>0.8887896079640043</v>
       </c>
       <c r="J6">
-        <v>0.8900417371348596</v>
+        <v>0.8887896079640044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.427118</v>
       </c>
       <c r="O6">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="P6">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="Q6">
         <v>214.2104216573789</v>
@@ -818,10 +818,10 @@
         <v>1927.89379491641</v>
       </c>
       <c r="S6">
-        <v>0.01288665224977818</v>
+        <v>0.01257899048821023</v>
       </c>
       <c r="T6">
-        <v>0.01288665224977817</v>
+        <v>0.01257899048821023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>794.313995</v>
       </c>
       <c r="I7">
-        <v>0.8900417371348598</v>
+        <v>0.8887896079640043</v>
       </c>
       <c r="J7">
-        <v>0.8900417371348596</v>
+        <v>0.8887896079640044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>160.813717</v>
       </c>
       <c r="O7">
-        <v>0.9593165469325392</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="P7">
-        <v>0.9593165469325391</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="Q7">
         <v>14192.95400011882</v>
@@ -880,10 +880,10 @@
         <v>127736.5860010694</v>
       </c>
       <c r="S7">
-        <v>0.8538317658940524</v>
+        <v>0.8334470003175501</v>
       </c>
       <c r="T7">
-        <v>0.8538317658940522</v>
+        <v>0.8334470003175503</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>93.717342</v>
       </c>
       <c r="I8">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="J8">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.464265666666667</v>
+        <v>2.750415333333333</v>
       </c>
       <c r="N8">
-        <v>4.392797</v>
+        <v>8.251245999999998</v>
       </c>
       <c r="O8">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="P8">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="Q8">
-        <v>45.742362087286</v>
+        <v>85.92053814534799</v>
       </c>
       <c r="R8">
-        <v>411.681258785574</v>
+        <v>773.2848433081318</v>
       </c>
       <c r="S8">
-        <v>0.002751807819346528</v>
+        <v>0.005045476423182265</v>
       </c>
       <c r="T8">
-        <v>0.002751807819346527</v>
+        <v>0.005045476423182265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>93.717342</v>
       </c>
       <c r="I9">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="J9">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.427118</v>
       </c>
       <c r="O9">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="P9">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="Q9">
         <v>25.273671964484</v>
@@ -1004,10 +1004,10 @@
         <v>227.463047680356</v>
       </c>
       <c r="S9">
-        <v>0.001520434996399039</v>
+        <v>0.001484135443941593</v>
       </c>
       <c r="T9">
-        <v>0.001520434996399038</v>
+        <v>0.001484135443941593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>93.717342</v>
       </c>
       <c r="I10">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="J10">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>160.813717</v>
       </c>
       <c r="O10">
-        <v>0.9593165469325392</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="P10">
-        <v>0.9593165469325391</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="Q10">
         <v>1674.559346042246</v>
@@ -1066,10 +1066,10 @@
         <v>15071.03411438021</v>
       </c>
       <c r="S10">
-        <v>0.1007395615820125</v>
+        <v>0.09833445974678311</v>
       </c>
       <c r="T10">
-        <v>0.1007395615820124</v>
+        <v>0.09833445974678311</v>
       </c>
     </row>
   </sheetData>
